--- a/target/classes/testData.xlsx
+++ b/target/classes/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susmb\Downloads\assignment (3)\assignment3\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F785393-99BB-4637-A115-F988C39ED539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C152F7C2-BF22-4176-8E5D-53403A357EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
@@ -58,12 +58,6 @@
     <t>AddComment</t>
   </si>
   <si>
-    <t>sushmatesting19</t>
-  </si>
-  <si>
-    <t>Krishna&amp;19</t>
-  </si>
-  <si>
     <t>Automation Testing</t>
   </si>
   <si>
@@ -98,16 +92,30 @@
   </si>
   <si>
     <t>Sauce Labs Fleece Jacket</t>
+  </si>
+  <si>
+    <t>sushmambasavaraj</t>
+  </si>
+  <si>
+    <t>Sushma@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,10 +159,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -168,8 +177,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -499,36 +512,39 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F5B30176-4E8B-44AD-AF35-E344969F31C6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -536,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -549,24 +565,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
